--- a/REGULAR/PICNIC GROVE/BAURILE, LOURDES.xlsx
+++ b/REGULAR/PICNIC GROVE/BAURILE, LOURDES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\PICNIC GROVE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\PICNIC GROVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537C060A-098A-4BEE-AE7E-EE7FD9D10A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="283">
   <si>
     <t>PERIOD</t>
   </si>
@@ -879,12 +880,15 @@
   </si>
   <si>
     <t>11/9,16,18,23,25/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1580,7 +1584,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1597,25 +1601,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K497" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K498" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1922,34 +1926,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M497"/>
+  <dimension ref="A2:M498"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A436" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A445" activePane="bottomLeft"/>
       <selection activeCell="G8" sqref="G8"/>
-      <selection pane="bottomLeft" activeCell="K452" sqref="K452"/>
+      <selection pane="bottomLeft" activeCell="B457" sqref="B457"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
@@ -1970,7 +1974,7 @@
       <c r="J2" s="61"/>
       <c r="K2" s="62"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1988,7 +1992,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="64"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2008,7 +2012,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="62"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="26" t="s">
         <v>18</v>
@@ -2016,7 +2020,7 @@
       <c r="I5" s="26"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="30"/>
@@ -2029,7 +2033,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="59" t="s">
@@ -2046,7 +2050,7 @@
       <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2081,7 +2085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="49"/>
       <c r="B9" s="50" t="s">
         <v>23</v>
@@ -2090,7 +2094,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>198.44599999999997</v>
+        <v>202.19599999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2100,12 +2104,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>302.25</v>
+        <v>306</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="53"/>
       <c r="B10" s="10" t="s">
         <v>67</v>
@@ -2120,7 +2124,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="55" t="s">
         <v>68</v>
       </c>
@@ -2135,7 +2139,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="51">
         <v>34866</v>
       </c>
@@ -2155,7 +2159,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>34881</v>
       </c>
@@ -2175,7 +2179,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>34912</v>
       </c>
@@ -2195,7 +2199,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>34943</v>
       </c>
@@ -2215,7 +2219,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>34973</v>
       </c>
@@ -2235,7 +2239,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <v>35004</v>
       </c>
@@ -2255,7 +2259,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <v>35034</v>
       </c>
@@ -2275,7 +2279,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>90</v>
       </c>
@@ -2297,7 +2301,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>35065</v>
       </c>
@@ -2317,7 +2321,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <v>35096</v>
       </c>
@@ -2343,7 +2347,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>35125</v>
       </c>
@@ -2363,7 +2367,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>35156</v>
       </c>
@@ -2389,7 +2393,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>35186</v>
       </c>
@@ -2409,7 +2413,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>35217</v>
       </c>
@@ -2433,7 +2437,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <v>35247</v>
       </c>
@@ -2453,7 +2457,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>35278</v>
       </c>
@@ -2473,7 +2477,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <v>35309</v>
       </c>
@@ -2499,7 +2503,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23" t="s">
         <v>97</v>
       </c>
@@ -2519,7 +2523,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <v>35339</v>
       </c>
@@ -2539,7 +2543,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <v>35370</v>
       </c>
@@ -2559,7 +2563,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <v>35400</v>
       </c>
@@ -2585,7 +2589,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>100</v>
@@ -2602,7 +2606,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
         <v>89</v>
       </c>
@@ -2624,7 +2628,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <v>35431</v>
       </c>
@@ -2644,7 +2648,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <v>35462</v>
       </c>
@@ -2664,7 +2668,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <v>35490</v>
       </c>
@@ -2684,7 +2688,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <v>35521</v>
       </c>
@@ -2710,7 +2714,7 @@
         <v>35434</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <v>35551</v>
       </c>
@@ -2734,7 +2738,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <v>35582</v>
       </c>
@@ -2754,7 +2758,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <v>35612</v>
       </c>
@@ -2780,7 +2784,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <v>35643</v>
       </c>
@@ -2806,7 +2810,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="20" t="s">
         <v>45</v>
@@ -2828,7 +2832,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>104</v>
@@ -2850,7 +2854,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <v>35674</v>
       </c>
@@ -2876,7 +2880,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <v>35704</v>
       </c>
@@ -2902,7 +2906,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>113</v>
@@ -2922,7 +2926,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <v>35735</v>
       </c>
@@ -2942,7 +2946,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <v>35765</v>
       </c>
@@ -2962,7 +2966,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>88</v>
       </c>
@@ -2984,7 +2988,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <v>35796</v>
       </c>
@@ -3010,7 +3014,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>114</v>
@@ -3030,7 +3034,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <v>35827</v>
       </c>
@@ -3050,7 +3054,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <v>35855</v>
       </c>
@@ -3076,7 +3080,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <v>35886</v>
       </c>
@@ -3096,7 +3100,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <v>35916</v>
       </c>
@@ -3122,7 +3126,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
         <v>35947</v>
       </c>
@@ -3148,7 +3152,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <v>35977</v>
       </c>
@@ -3172,7 +3176,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <v>36008</v>
       </c>
@@ -3192,7 +3196,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <v>36039</v>
       </c>
@@ -3216,7 +3220,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <v>36069</v>
       </c>
@@ -3242,7 +3246,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>120</v>
@@ -3262,7 +3266,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <v>36100</v>
       </c>
@@ -3288,7 +3292,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>121</v>
@@ -3308,7 +3312,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <v>36130</v>
       </c>
@@ -3334,7 +3338,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23"/>
       <c r="B66" s="20" t="s">
         <v>122</v>
@@ -3354,7 +3358,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="47" t="s">
         <v>87</v>
       </c>
@@ -3376,7 +3380,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <v>36161</v>
       </c>
@@ -3400,7 +3404,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>48</v>
@@ -3420,7 +3424,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <v>36192</v>
       </c>
@@ -3440,7 +3444,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <v>36220</v>
       </c>
@@ -3460,7 +3464,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>36251</v>
       </c>
@@ -3480,7 +3484,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <v>36281</v>
       </c>
@@ -3506,7 +3510,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <v>36312</v>
       </c>
@@ -3532,7 +3536,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>118</v>
@@ -3554,7 +3558,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <v>36342</v>
       </c>
@@ -3574,7 +3578,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <v>36373</v>
       </c>
@@ -3600,7 +3604,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <v>36404</v>
       </c>
@@ -3626,7 +3630,7 @@
         <v>47362</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
         <v>48</v>
@@ -3646,7 +3650,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <v>36434</v>
       </c>
@@ -3666,7 +3670,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <v>36465</v>
       </c>
@@ -3690,7 +3694,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <v>36495</v>
       </c>
@@ -3714,7 +3718,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="47" t="s">
         <v>86</v>
       </c>
@@ -3736,7 +3740,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <v>36526</v>
       </c>
@@ -3760,7 +3764,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <v>36557</v>
       </c>
@@ -3784,7 +3788,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>48</v>
@@ -3804,7 +3808,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <v>36586</v>
       </c>
@@ -3830,7 +3834,7 @@
         <v>46447</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <v>36617</v>
       </c>
@@ -3854,7 +3858,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
         <v>36647</v>
       </c>
@@ -3878,7 +3882,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <v>36678</v>
       </c>
@@ -3898,7 +3902,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
         <v>36708</v>
       </c>
@@ -3922,7 +3926,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <v>36739</v>
       </c>
@@ -3946,7 +3950,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <v>36770</v>
       </c>
@@ -3970,7 +3974,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <v>36800</v>
       </c>
@@ -3996,7 +4000,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>144</v>
@@ -4016,7 +4020,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <v>36831</v>
       </c>
@@ -4042,7 +4046,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>145</v>
@@ -4062,7 +4066,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <v>36861</v>
       </c>
@@ -4088,7 +4092,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>132</v>
@@ -4110,7 +4114,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>146</v>
@@ -4130,7 +4134,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="47" t="s">
         <v>85</v>
       </c>
@@ -4152,7 +4156,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <v>36892</v>
       </c>
@@ -4176,7 +4180,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <v>36923</v>
       </c>
@@ -4200,7 +4204,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>48</v>
@@ -4220,7 +4224,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <v>36951</v>
       </c>
@@ -4244,7 +4248,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <v>36982</v>
       </c>
@@ -4264,7 +4268,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <v>37012</v>
       </c>
@@ -4288,7 +4292,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
         <v>37043</v>
       </c>
@@ -4312,7 +4316,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
         <v>37073</v>
       </c>
@@ -4332,7 +4336,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <v>37104</v>
       </c>
@@ -4352,7 +4356,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
         <v>37135</v>
       </c>
@@ -4376,7 +4380,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <v>37165</v>
       </c>
@@ -4400,7 +4404,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <v>37196</v>
       </c>
@@ -4426,7 +4430,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>138</v>
@@ -4446,7 +4450,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
         <v>37226</v>
       </c>
@@ -4470,7 +4474,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="47" t="s">
         <v>84</v>
       </c>
@@ -4492,7 +4496,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23">
         <v>37257</v>
       </c>
@@ -4512,7 +4516,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
         <v>37288</v>
       </c>
@@ -4534,7 +4538,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>48</v>
@@ -4554,7 +4558,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23">
         <v>37316</v>
       </c>
@@ -4576,7 +4580,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>102</v>
@@ -4596,7 +4600,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <v>37347</v>
       </c>
@@ -4616,7 +4620,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <v>37377</v>
       </c>
@@ -4642,7 +4646,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
         <v>37408</v>
       </c>
@@ -4666,7 +4670,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <v>37438</v>
       </c>
@@ -4686,7 +4690,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23">
         <v>37469</v>
       </c>
@@ -4710,7 +4714,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23">
         <v>37500</v>
       </c>
@@ -4736,7 +4740,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <v>37530</v>
       </c>
@@ -4756,7 +4760,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <v>37561</v>
       </c>
@@ -4776,7 +4780,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <v>37591</v>
       </c>
@@ -4796,7 +4800,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="47" t="s">
         <v>83</v>
       </c>
@@ -4818,7 +4822,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23">
         <v>37622</v>
       </c>
@@ -4842,7 +4846,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
         <v>48</v>
@@ -4862,7 +4866,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <v>37653</v>
       </c>
@@ -4882,7 +4886,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
         <v>37681</v>
       </c>
@@ -4902,7 +4906,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <v>37712</v>
       </c>
@@ -4922,7 +4926,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <v>37742</v>
       </c>
@@ -4942,7 +4946,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <v>37773</v>
       </c>
@@ -4966,7 +4970,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
         <v>37803</v>
       </c>
@@ -4986,7 +4990,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23">
         <v>37834</v>
       </c>
@@ -5006,7 +5010,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23">
         <v>37865</v>
       </c>
@@ -5030,7 +5034,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
         <v>37895</v>
       </c>
@@ -5054,7 +5058,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <v>37926</v>
       </c>
@@ -5080,7 +5084,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <v>37956</v>
       </c>
@@ -5100,7 +5104,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="47" t="s">
         <v>82</v>
       </c>
@@ -5122,7 +5126,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23">
         <v>37987</v>
       </c>
@@ -5142,7 +5146,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <v>38018</v>
       </c>
@@ -5162,7 +5166,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23">
         <v>38047</v>
       </c>
@@ -5182,7 +5186,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
         <v>38078</v>
       </c>
@@ -5202,7 +5206,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23">
         <v>38108</v>
       </c>
@@ -5222,7 +5226,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23">
         <v>38139</v>
       </c>
@@ -5246,7 +5250,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
         <v>38169</v>
       </c>
@@ -5270,7 +5274,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23">
         <v>38200</v>
       </c>
@@ -5294,7 +5298,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23">
         <v>38231</v>
       </c>
@@ -5314,7 +5318,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <v>38261</v>
       </c>
@@ -5334,7 +5338,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23">
         <v>38292</v>
       </c>
@@ -5360,7 +5364,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <v>38322</v>
       </c>
@@ -5380,7 +5384,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="47" t="s">
         <v>81</v>
       </c>
@@ -5402,7 +5406,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <v>38353</v>
       </c>
@@ -5422,7 +5426,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23">
         <v>38384</v>
       </c>
@@ -5442,7 +5446,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
         <v>38412</v>
       </c>
@@ -5462,7 +5466,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <v>38443</v>
       </c>
@@ -5482,7 +5486,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23">
         <v>38473</v>
       </c>
@@ -5502,7 +5506,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23">
         <v>38504</v>
       </c>
@@ -5522,7 +5526,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <v>38534</v>
       </c>
@@ -5548,7 +5552,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>171</v>
@@ -5568,7 +5572,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23">
         <v>38565</v>
       </c>
@@ -5592,7 +5596,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23">
         <v>38596</v>
       </c>
@@ -5616,7 +5620,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>94</v>
@@ -5638,7 +5642,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>173</v>
@@ -5658,7 +5662,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23">
         <v>38626</v>
       </c>
@@ -5682,7 +5686,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23">
         <v>38657</v>
       </c>
@@ -5706,7 +5710,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23">
         <v>38687</v>
       </c>
@@ -5730,7 +5734,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="47" t="s">
         <v>80</v>
       </c>
@@ -5752,7 +5756,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <v>38718</v>
       </c>
@@ -5772,7 +5776,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23">
         <v>38749</v>
       </c>
@@ -5796,7 +5800,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <v>38777</v>
       </c>
@@ -5822,7 +5826,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23">
         <v>38808</v>
       </c>
@@ -5848,7 +5852,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <v>38838</v>
       </c>
@@ -5868,7 +5872,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23">
         <v>38869</v>
       </c>
@@ -5894,7 +5898,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23">
         <v>38899</v>
       </c>
@@ -5920,7 +5924,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <v>38930</v>
       </c>
@@ -5940,7 +5944,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
         <v>38961</v>
       </c>
@@ -5966,7 +5970,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>48</v>
@@ -5986,7 +5990,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>45</v>
@@ -6008,7 +6012,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
         <v>38991</v>
       </c>
@@ -6034,7 +6038,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>94</v>
@@ -6054,7 +6058,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23">
         <v>39022</v>
       </c>
@@ -6080,7 +6084,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23">
         <v>39052</v>
       </c>
@@ -6100,7 +6104,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="47" t="s">
         <v>79</v>
       </c>
@@ -6122,7 +6126,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23">
         <v>39083</v>
       </c>
@@ -6146,7 +6150,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <v>39114</v>
       </c>
@@ -6166,7 +6170,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23">
         <v>39142</v>
       </c>
@@ -6186,7 +6190,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23">
         <v>39173</v>
       </c>
@@ -6206,7 +6210,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23">
         <v>39203</v>
       </c>
@@ -6232,7 +6236,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <v>39234</v>
       </c>
@@ -6252,7 +6256,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23">
         <v>39264</v>
       </c>
@@ -6272,7 +6276,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23">
         <v>39295</v>
       </c>
@@ -6292,7 +6296,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <v>39326</v>
       </c>
@@ -6316,7 +6320,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23">
         <v>39356</v>
       </c>
@@ -6340,7 +6344,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>48</v>
@@ -6360,7 +6364,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>195</v>
@@ -6380,7 +6384,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23">
         <v>39387</v>
       </c>
@@ -6404,7 +6408,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>197</v>
@@ -6424,7 +6428,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23">
         <v>39417</v>
       </c>
@@ -6450,7 +6454,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="47" t="s">
         <v>78</v>
       </c>
@@ -6472,7 +6476,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23">
         <v>39448</v>
       </c>
@@ -6498,7 +6502,7 @@
         <v>39754</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23">
         <v>39479</v>
       </c>
@@ -6518,7 +6522,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23">
         <v>39508</v>
       </c>
@@ -6538,7 +6542,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23">
         <v>39539</v>
       </c>
@@ -6558,7 +6562,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <v>39569</v>
       </c>
@@ -6578,7 +6582,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23">
         <v>39600</v>
       </c>
@@ -6598,7 +6602,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23">
         <v>39630</v>
       </c>
@@ -6624,7 +6628,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>118</v>
@@ -6646,7 +6650,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>94</v>
@@ -6668,7 +6672,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23">
         <v>39661</v>
       </c>
@@ -6694,7 +6698,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23">
         <v>39692</v>
       </c>
@@ -6718,7 +6722,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23">
         <v>39722</v>
       </c>
@@ -6738,7 +6742,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23">
         <v>39753</v>
       </c>
@@ -6758,7 +6762,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23">
         <v>39783</v>
       </c>
@@ -6778,7 +6782,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="47" t="s">
         <v>77</v>
       </c>
@@ -6800,7 +6804,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23">
         <v>39814</v>
       </c>
@@ -6824,7 +6828,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>205</v>
@@ -6844,7 +6848,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23">
         <v>39845</v>
       </c>
@@ -6868,7 +6872,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23">
         <v>39873</v>
       </c>
@@ -6892,7 +6896,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23">
         <v>39904</v>
       </c>
@@ -6916,7 +6920,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23">
         <v>39934</v>
       </c>
@@ -6940,7 +6944,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <v>39965</v>
       </c>
@@ -6964,7 +6968,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23">
         <v>39995</v>
       </c>
@@ -6988,7 +6992,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23">
         <v>40026</v>
       </c>
@@ -7012,7 +7016,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23">
         <v>40057</v>
       </c>
@@ -7036,7 +7040,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>212</v>
@@ -7056,7 +7060,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23">
         <v>40087</v>
       </c>
@@ -7082,7 +7086,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>213</v>
@@ -7102,7 +7106,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23">
         <v>40118</v>
       </c>
@@ -7128,7 +7132,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>214</v>
@@ -7148,7 +7152,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23">
         <v>40148</v>
       </c>
@@ -7172,7 +7176,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="47" t="s">
         <v>76</v>
       </c>
@@ -7194,7 +7198,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23">
         <v>40179</v>
       </c>
@@ -7218,7 +7222,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23">
         <v>40210</v>
       </c>
@@ -7244,7 +7248,7 @@
         <v>40484</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>118</v>
@@ -7263,7 +7267,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>94</v>
@@ -7282,7 +7286,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>221</v>
@@ -7299,7 +7303,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23">
         <v>40238</v>
       </c>
@@ -7323,7 +7327,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
         <v>40269</v>
       </c>
@@ -7347,7 +7351,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23">
         <v>40299</v>
       </c>
@@ -7371,7 +7375,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>94</v>
@@ -7391,7 +7395,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>224</v>
@@ -7411,7 +7415,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23">
         <v>40330</v>
       </c>
@@ -7435,7 +7439,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23">
         <v>40360</v>
       </c>
@@ -7455,7 +7459,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <v>40391</v>
       </c>
@@ -7481,7 +7485,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>226</v>
@@ -7501,7 +7505,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23">
         <v>40422</v>
       </c>
@@ -7525,7 +7529,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>227</v>
@@ -7545,7 +7549,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23">
         <v>40452</v>
       </c>
@@ -7569,7 +7573,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
         <v>40483</v>
       </c>
@@ -7589,7 +7593,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23">
         <v>40513</v>
       </c>
@@ -7613,7 +7617,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>155</v>
@@ -7633,7 +7637,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="47" t="s">
         <v>75</v>
       </c>
@@ -7655,7 +7659,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23">
         <v>40544</v>
       </c>
@@ -7679,7 +7683,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23">
         <v>40575</v>
       </c>
@@ -7705,7 +7709,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>235</v>
@@ -7725,7 +7729,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23">
         <v>40603</v>
       </c>
@@ -7749,7 +7753,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23">
         <v>40634</v>
       </c>
@@ -7773,7 +7777,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23">
         <v>40664</v>
       </c>
@@ -7797,7 +7801,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <v>40695</v>
       </c>
@@ -7821,7 +7825,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23">
         <v>40725</v>
       </c>
@@ -7841,7 +7845,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23">
         <v>40756</v>
       </c>
@@ -7861,7 +7865,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23">
         <v>40787</v>
       </c>
@@ -7885,7 +7889,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23">
         <v>40817</v>
       </c>
@@ -7911,7 +7915,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>166</v>
@@ -7931,7 +7935,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23">
         <v>40848</v>
       </c>
@@ -7951,7 +7955,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23">
         <v>40878</v>
       </c>
@@ -7975,7 +7979,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="47" t="s">
         <v>74</v>
       </c>
@@ -7997,7 +8001,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23">
         <v>40909</v>
       </c>
@@ -8021,7 +8025,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <v>40940</v>
       </c>
@@ -8041,7 +8045,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23">
         <v>40969</v>
       </c>
@@ -8061,7 +8065,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23">
         <v>41000</v>
       </c>
@@ -8081,7 +8085,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23">
         <v>41030</v>
       </c>
@@ -8101,7 +8105,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <v>41061</v>
       </c>
@@ -8121,7 +8125,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23">
         <v>41091</v>
       </c>
@@ -8141,7 +8145,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23">
         <v>41122</v>
       </c>
@@ -8165,7 +8169,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23">
         <v>41153</v>
       </c>
@@ -8185,7 +8189,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23">
         <v>41183</v>
       </c>
@@ -8211,7 +8215,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>48</v>
@@ -8228,7 +8232,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23">
         <v>41214</v>
       </c>
@@ -8248,7 +8252,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23">
         <v>41244</v>
       </c>
@@ -8268,7 +8272,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="47" t="s">
         <v>73</v>
       </c>
@@ -8290,7 +8294,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23">
         <v>41275</v>
       </c>
@@ -8316,7 +8320,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>48</v>
@@ -8333,7 +8337,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23">
         <v>41306</v>
       </c>
@@ -8353,7 +8357,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23">
         <v>41334</v>
       </c>
@@ -8373,7 +8377,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23">
         <v>41365</v>
       </c>
@@ -8393,7 +8397,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23">
         <v>41395</v>
       </c>
@@ -8413,7 +8417,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23">
         <v>41426</v>
       </c>
@@ -8433,7 +8437,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23">
         <v>41456</v>
       </c>
@@ -8453,7 +8457,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
         <v>41487</v>
       </c>
@@ -8479,7 +8483,7 @@
         <v>41433</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>48</v>
@@ -8499,7 +8503,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23">
         <v>41518</v>
       </c>
@@ -8519,7 +8523,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23">
         <v>41548</v>
       </c>
@@ -8539,7 +8543,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23">
         <v>41579</v>
       </c>
@@ -8565,7 +8569,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23">
         <v>41609</v>
       </c>
@@ -8589,7 +8593,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="47" t="s">
         <v>72</v>
       </c>
@@ -8611,7 +8615,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23">
         <v>41640</v>
       </c>
@@ -8635,7 +8639,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23">
         <v>41671</v>
       </c>
@@ -8655,7 +8659,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23">
         <v>41699</v>
       </c>
@@ -8675,7 +8679,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
         <v>41730</v>
       </c>
@@ -8695,7 +8699,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
         <v>41760</v>
       </c>
@@ -8721,7 +8725,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23">
         <v>41791</v>
       </c>
@@ -8741,7 +8745,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23">
         <v>41821</v>
       </c>
@@ -8761,7 +8765,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23">
         <v>41852</v>
       </c>
@@ -8781,7 +8785,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23">
         <v>41883</v>
       </c>
@@ -8805,7 +8809,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23">
         <v>41913</v>
       </c>
@@ -8825,7 +8829,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23">
         <v>41944</v>
       </c>
@@ -8849,7 +8853,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>94</v>
@@ -8871,7 +8875,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23">
         <v>41974</v>
       </c>
@@ -8897,7 +8901,7 @@
         <v>41682</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="47" t="s">
         <v>71</v>
       </c>
@@ -8919,7 +8923,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23">
         <v>42005</v>
       </c>
@@ -8939,7 +8943,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23">
         <v>42036</v>
       </c>
@@ -8963,7 +8967,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23">
         <v>42064</v>
       </c>
@@ -8987,7 +8991,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23">
         <v>42095</v>
       </c>
@@ -9011,7 +9015,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23">
         <v>42125</v>
       </c>
@@ -9035,7 +9039,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23">
         <v>42156</v>
       </c>
@@ -9055,7 +9059,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <v>42186</v>
       </c>
@@ -9075,7 +9079,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23">
         <v>42217</v>
       </c>
@@ -9099,7 +9103,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23">
         <v>42248</v>
       </c>
@@ -9119,7 +9123,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23">
         <v>42278</v>
       </c>
@@ -9139,7 +9143,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23">
         <v>42309</v>
       </c>
@@ -9163,7 +9167,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23">
         <v>42339</v>
       </c>
@@ -9187,7 +9191,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>260</v>
@@ -9204,7 +9208,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="47" t="s">
         <v>70</v>
       </c>
@@ -9226,7 +9230,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23">
         <v>42370</v>
       </c>
@@ -9250,7 +9254,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23">
         <v>42401</v>
       </c>
@@ -9274,7 +9278,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23">
         <v>42430</v>
       </c>
@@ -9298,7 +9302,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23">
         <v>42461</v>
       </c>
@@ -9318,7 +9322,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23">
         <v>42491</v>
       </c>
@@ -9338,7 +9342,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23">
         <v>42522</v>
       </c>
@@ -9358,7 +9362,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23">
         <v>42552</v>
       </c>
@@ -9378,7 +9382,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
         <v>42583</v>
       </c>
@@ -9398,7 +9402,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23">
         <v>42614</v>
       </c>
@@ -9422,7 +9426,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23">
         <v>42644</v>
       </c>
@@ -9448,7 +9452,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>48</v>
@@ -9465,7 +9469,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23">
         <v>42675</v>
       </c>
@@ -9485,7 +9489,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23">
         <v>42705</v>
       </c>
@@ -9505,7 +9509,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="47" t="s">
         <v>69</v>
       </c>
@@ -9527,7 +9531,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23">
         <v>42736</v>
       </c>
@@ -9547,7 +9551,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23">
         <v>42767</v>
       </c>
@@ -9571,7 +9575,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23">
         <v>42795</v>
       </c>
@@ -9591,7 +9595,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23">
         <v>42826</v>
       </c>
@@ -9611,7 +9615,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23">
         <v>42856</v>
       </c>
@@ -9631,7 +9635,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23">
         <v>42887</v>
       </c>
@@ -9651,7 +9655,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23">
         <v>42917</v>
       </c>
@@ -9671,7 +9675,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23">
         <v>42948</v>
       </c>
@@ -9691,7 +9695,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23">
         <v>42979</v>
       </c>
@@ -9715,7 +9719,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>95</v>
@@ -9734,7 +9738,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23"/>
       <c r="B356" s="20" t="s">
         <v>48</v>
@@ -9751,7 +9755,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>132</v>
@@ -9770,7 +9774,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23">
         <v>43009</v>
       </c>
@@ -9790,7 +9794,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23">
         <v>43040</v>
       </c>
@@ -9810,7 +9814,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23">
         <v>43070</v>
       </c>
@@ -9830,7 +9834,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="47" t="s">
         <v>44</v>
       </c>
@@ -9852,7 +9856,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="39">
         <v>43101</v>
       </c>
@@ -9872,7 +9876,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="39">
         <v>43132</v>
       </c>
@@ -9898,7 +9902,7 @@
         <v>43142</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="39">
         <v>43160</v>
       </c>
@@ -9918,7 +9922,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="39">
         <v>43191</v>
       </c>
@@ -9938,7 +9942,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="39">
         <v>43221</v>
       </c>
@@ -9958,7 +9962,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="39">
         <v>43252</v>
       </c>
@@ -9978,7 +9982,7 @@
       <c r="J367" s="12"/>
       <c r="K367" s="15"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="39">
         <v>43282</v>
       </c>
@@ -9998,7 +10002,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="39">
         <v>43313</v>
       </c>
@@ -10024,7 +10028,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="39"/>
       <c r="B370" s="20" t="s">
         <v>47</v>
@@ -10043,7 +10047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="39"/>
       <c r="B371" s="20" t="s">
         <v>45</v>
@@ -10062,7 +10066,7 @@
         <v>43334</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="39"/>
       <c r="B372" s="20" t="s">
         <v>45</v>
@@ -10081,7 +10085,7 @@
         <v>43343</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="39"/>
       <c r="B373" s="20" t="s">
         <v>48</v>
@@ -10098,7 +10102,7 @@
         <v>43361</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="39">
         <v>43344</v>
       </c>
@@ -10118,7 +10122,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="39">
         <v>43374</v>
       </c>
@@ -10138,7 +10142,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="39">
         <v>43405</v>
       </c>
@@ -10158,7 +10162,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="39">
         <v>43435</v>
       </c>
@@ -10178,7 +10182,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="47" t="s">
         <v>51</v>
       </c>
@@ -10196,7 +10200,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="39">
         <v>43466</v>
       </c>
@@ -10216,7 +10220,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="39">
         <v>43497</v>
       </c>
@@ -10240,7 +10244,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="39"/>
       <c r="B381" s="20" t="s">
         <v>45</v>
@@ -10259,7 +10263,7 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="39">
         <v>43525</v>
       </c>
@@ -10279,7 +10283,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="39">
         <v>43556</v>
       </c>
@@ -10299,7 +10303,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="39">
         <v>43586</v>
       </c>
@@ -10319,7 +10323,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="39">
         <v>43617</v>
       </c>
@@ -10339,7 +10343,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="39">
         <v>43647</v>
       </c>
@@ -10365,7 +10369,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="39"/>
       <c r="B387" s="20" t="s">
         <v>45</v>
@@ -10384,7 +10388,7 @@
         <v>43671</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="39">
         <v>43678</v>
       </c>
@@ -10410,7 +10414,7 @@
         <v>43684</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="39"/>
       <c r="B389" s="20" t="s">
         <v>48</v>
@@ -10427,7 +10431,7 @@
         <v>43725</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="39">
         <v>43709</v>
       </c>
@@ -10447,7 +10451,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="39">
         <v>43739</v>
       </c>
@@ -10473,7 +10477,7 @@
         <v>43754</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="39">
         <v>43770</v>
       </c>
@@ -10499,7 +10503,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="39">
         <v>43800</v>
       </c>
@@ -10519,7 +10523,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="47" t="s">
         <v>52</v>
       </c>
@@ -10537,7 +10541,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="39">
         <v>43831</v>
       </c>
@@ -10557,7 +10561,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="39">
         <v>43862</v>
       </c>
@@ -10581,7 +10585,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="39"/>
       <c r="B397" s="20" t="s">
         <v>48</v>
@@ -10598,7 +10602,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="39">
         <v>43891</v>
       </c>
@@ -10618,7 +10622,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="39">
         <v>43922</v>
       </c>
@@ -10638,7 +10642,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="39">
         <v>43952</v>
       </c>
@@ -10658,7 +10662,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A401" s="39">
         <v>43983</v>
       </c>
@@ -10678,7 +10682,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A402" s="39">
         <v>44013</v>
       </c>
@@ -10698,7 +10702,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A403" s="39">
         <v>44044</v>
       </c>
@@ -10718,7 +10722,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A404" s="39">
         <v>44075</v>
       </c>
@@ -10742,7 +10746,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A405" s="39"/>
       <c r="B405" s="20" t="s">
         <v>46</v>
@@ -10761,7 +10765,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A406" s="39">
         <v>44105</v>
       </c>
@@ -10781,7 +10785,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A407" s="39">
         <v>44136</v>
       </c>
@@ -10801,7 +10805,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A408" s="39">
         <v>44166</v>
       </c>
@@ -10821,7 +10825,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A409" s="47" t="s">
         <v>57</v>
       </c>
@@ -10839,7 +10843,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A410" s="39">
         <v>44197</v>
       </c>
@@ -10859,7 +10863,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A411" s="39">
         <v>44228</v>
       </c>
@@ -10883,7 +10887,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A412" s="39">
         <v>44256</v>
       </c>
@@ -10903,7 +10907,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A413" s="39">
         <v>44287</v>
       </c>
@@ -10923,7 +10927,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A414" s="39">
         <v>44317</v>
       </c>
@@ -10944,10 +10948,10 @@
       <c r="K414" s="20"/>
       <c r="M414" s="45">
         <f>SUM(E9,I9)</f>
-        <v>500.69599999999997</v>
-      </c>
-    </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+        <v>508.19599999999997</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A415" s="39">
         <v>44348</v>
       </c>
@@ -10973,7 +10977,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A416" s="39"/>
       <c r="B416" s="20" t="s">
         <v>58</v>
@@ -10992,7 +10996,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="39">
         <v>44378</v>
       </c>
@@ -11012,7 +11016,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="39">
         <v>44409</v>
       </c>
@@ -11032,7 +11036,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="39">
         <v>44440</v>
       </c>
@@ -11052,7 +11056,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="39">
         <v>44470</v>
       </c>
@@ -11072,7 +11076,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="39">
         <v>44501</v>
       </c>
@@ -11098,7 +11102,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="39"/>
       <c r="B422" s="20" t="s">
         <v>59</v>
@@ -11115,7 +11119,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="39">
         <v>44531</v>
       </c>
@@ -11135,7 +11139,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="47" t="s">
         <v>64</v>
       </c>
@@ -11153,7 +11157,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="39">
         <v>44562</v>
       </c>
@@ -11173,7 +11177,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="39">
         <v>44593</v>
       </c>
@@ -11197,7 +11201,7 @@
         <v>44603</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="39">
         <v>44621</v>
       </c>
@@ -11221,7 +11225,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="39">
         <v>44652</v>
       </c>
@@ -11241,7 +11245,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="39">
         <v>44682</v>
       </c>
@@ -11265,7 +11269,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="39">
         <v>44713</v>
       </c>
@@ -11285,7 +11289,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="39">
         <v>44743</v>
       </c>
@@ -11309,7 +11313,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="39">
         <v>44774</v>
       </c>
@@ -11333,7 +11337,7 @@
         <v>44822</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="39"/>
       <c r="B433" s="20" t="s">
         <v>279</v>
@@ -11353,7 +11357,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="48"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="39">
         <v>44805</v>
       </c>
@@ -11377,7 +11381,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="39">
         <v>44835</v>
       </c>
@@ -11401,7 +11405,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="39">
         <v>44866</v>
       </c>
@@ -11427,7 +11431,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="39"/>
       <c r="B437" s="20" t="s">
         <v>276</v>
@@ -11447,7 +11451,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="39">
         <v>44896</v>
       </c>
@@ -11471,7 +11475,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="47" t="s">
         <v>66</v>
       </c>
@@ -11489,7 +11493,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="39">
         <v>44927</v>
       </c>
@@ -11509,7 +11513,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="39">
         <v>44958</v>
       </c>
@@ -11533,7 +11537,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="39">
         <v>44986</v>
       </c>
@@ -11553,7 +11557,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="39">
         <v>45017</v>
       </c>
@@ -11573,7 +11577,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="39">
         <v>45047</v>
       </c>
@@ -11597,7 +11601,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="39"/>
       <c r="B445" s="20" t="s">
         <v>273</v>
@@ -11619,7 +11623,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="39">
         <v>45078</v>
       </c>
@@ -11639,7 +11643,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="39">
         <v>45108</v>
       </c>
@@ -11659,7 +11663,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="39">
         <v>45139</v>
       </c>
@@ -11679,7 +11683,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="39">
         <v>45170</v>
       </c>
@@ -11703,7 +11707,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="39">
         <v>45200</v>
       </c>
@@ -11723,22 +11727,24 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="39">
         <v>45231</v>
       </c>
       <c r="B451" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C451" s="13"/>
+      <c r="C451" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D451" s="38">
         <v>5</v>
       </c>
       <c r="E451" s="9"/>
       <c r="F451" s="20"/>
-      <c r="G451" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G451" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H451" s="38"/>
       <c r="I451" s="9"/>
@@ -11747,7 +11753,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="39"/>
       <c r="B452" s="20" t="s">
         <v>48</v>
@@ -11767,27 +11773,29 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="39">
         <v>45261</v>
       </c>
       <c r="B453" s="20"/>
-      <c r="C453" s="13"/>
+      <c r="C453" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D453" s="38"/>
       <c r="E453" s="9"/>
       <c r="F453" s="20"/>
-      <c r="G453" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G453" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H453" s="38"/>
       <c r="I453" s="9"/>
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A454" s="39">
-        <v>45292</v>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A454" s="47" t="s">
+        <v>282</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -11803,29 +11811,33 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="39">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B455" s="20"/>
-      <c r="C455" s="13"/>
+      <c r="C455" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D455" s="38"/>
       <c r="E455" s="9"/>
       <c r="F455" s="20"/>
-      <c r="G455" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G455" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H455" s="38"/>
       <c r="I455" s="9"/>
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="39">
-        <v>45352</v>
-      </c>
-      <c r="B456" s="20"/>
+        <v>45323</v>
+      </c>
+      <c r="B456" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C456" s="13"/>
       <c r="D456" s="38"/>
       <c r="E456" s="9"/>
@@ -11837,11 +11849,13 @@
       <c r="H456" s="38"/>
       <c r="I456" s="9"/>
       <c r="J456" s="11"/>
-      <c r="K456" s="20"/>
-    </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K456" s="48">
+        <v>45333</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -11857,9 +11871,9 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -11875,9 +11889,9 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -11893,9 +11907,9 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -11911,9 +11925,9 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="39">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -11929,9 +11943,9 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="39">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -11947,9 +11961,9 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="39">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -11965,9 +11979,9 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="39">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -11983,9 +11997,9 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="39">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -12001,9 +12015,9 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="39">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -12019,9 +12033,9 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="39">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -12037,9 +12051,9 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="39">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -12055,9 +12069,9 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="39">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -12073,9 +12087,9 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="39">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -12091,9 +12105,9 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="39">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -12109,9 +12123,9 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="39">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -12127,9 +12141,9 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="39">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -12145,9 +12159,9 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="39">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -12163,9 +12177,9 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="39">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -12181,9 +12195,9 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="39">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -12199,9 +12213,9 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="39">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -12217,9 +12231,9 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="39">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12235,9 +12249,9 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="39">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -12253,9 +12267,9 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="39">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -12271,9 +12285,9 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="39">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -12289,9 +12303,9 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="39">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12307,9 +12321,9 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="39">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12325,9 +12339,9 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="39">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12343,9 +12357,9 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="39">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12361,9 +12375,9 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="39">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12379,9 +12393,9 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="39">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -12397,9 +12411,9 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="39">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -12415,9 +12429,9 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="39">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -12433,9 +12447,9 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="39">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -12451,9 +12465,9 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="39">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -12469,9 +12483,9 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="39">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -12487,9 +12501,9 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="39">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -12505,8 +12519,10 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A494" s="39"/>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A494" s="39">
+        <v>46478</v>
+      </c>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
       <c r="D494" s="38"/>
@@ -12521,7 +12537,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="39"/>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -12537,7 +12553,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="39"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -12553,21 +12569,37 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A497" s="40"/>
-      <c r="B497" s="15"/>
-      <c r="C497" s="41"/>
-      <c r="D497" s="42"/>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A497" s="39"/>
+      <c r="B497" s="20"/>
+      <c r="C497" s="13"/>
+      <c r="D497" s="38"/>
       <c r="E497" s="9"/>
-      <c r="F497" s="15"/>
-      <c r="G497" s="41" t="str">
+      <c r="F497" s="20"/>
+      <c r="G497" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H497" s="42"/>
+      <c r="H497" s="38"/>
       <c r="I497" s="9"/>
-      <c r="J497" s="12"/>
-      <c r="K497" s="15"/>
+      <c r="J497" s="11"/>
+      <c r="K497" s="20"/>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A498" s="40"/>
+      <c r="B498" s="15"/>
+      <c r="C498" s="41"/>
+      <c r="D498" s="42"/>
+      <c r="E498" s="9"/>
+      <c r="F498" s="15"/>
+      <c r="G498" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H498" s="42"/>
+      <c r="I498" s="9"/>
+      <c r="J498" s="12"/>
+      <c r="K498" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12584,10 +12616,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12610,28 +12642,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
@@ -12644,7 +12676,7 @@
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
@@ -12673,7 +12705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -12697,17 +12729,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="32"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -12728,7 +12760,7 @@
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -12755,7 +12787,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -12781,7 +12813,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -12807,7 +12839,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -12833,7 +12865,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -12859,7 +12891,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -12885,7 +12917,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -12911,7 +12943,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -12937,7 +12969,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -12957,7 +12989,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -12977,7 +13009,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -12997,7 +13029,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -13018,7 +13050,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -13039,7 +13071,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -13060,7 +13092,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -13081,7 +13113,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -13102,7 +13134,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -13123,7 +13155,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -13144,7 +13176,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -13165,7 +13197,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -13186,7 +13218,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -13207,7 +13239,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -13228,7 +13260,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -13249,7 +13281,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -13270,7 +13302,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -13291,7 +13323,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -13312,7 +13344,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -13333,7 +13365,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -13354,7 +13386,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -13375,7 +13407,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -13396,7 +13428,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -13417,7 +13449,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -13426,7 +13458,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -13435,7 +13467,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -13444,7 +13476,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -13453,7 +13485,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -13462,7 +13494,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -13471,7 +13503,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -13480,7 +13512,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -13489,7 +13521,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -13498,7 +13530,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -13507,7 +13539,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -13516,7 +13548,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -13525,7 +13557,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -13534,7 +13566,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -13543,7 +13575,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -13552,7 +13584,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -13561,7 +13593,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -13570,7 +13602,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -13579,7 +13611,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -13588,7 +13620,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -13597,7 +13629,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -13606,7 +13638,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -13615,7 +13647,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -13624,7 +13656,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -13633,7 +13665,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -13642,7 +13674,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -13651,7 +13683,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -13660,7 +13692,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -13669,7 +13701,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -13678,7 +13710,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
